--- a/biology/Zoologie/Gallotia_simonyi/Gallotia_simonyi.xlsx
+++ b/biology/Zoologie/Gallotia_simonyi/Gallotia_simonyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallotia simonyi, le Lézard géant d'El Hierro, est une espèce de sauriens de la famille des Lacertidae[1]. Il est le symbole animal des îles El Hierro[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallotia simonyi, le Lézard géant d'El Hierro, est une espèce de sauriens de la famille des Lacertidae. Il est le symbole animal des îles El Hierro.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'El Hierro aux îles Canaries[1].
-La sous-espèce Gallotia simonyi simonyi présente uniquement sur un îlot d'un hectare situé à 830 m au Nord d'El Hierro, le Roque Chico de Salmor, était considérée comme disparue depuis plus d'un siècle, fut redécouverte en 1974 [3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'El Hierro aux îles Canaries.
+La sous-espèce Gallotia simonyi simonyi présente uniquement sur un îlot d'un hectare situé à 830 m au Nord d'El Hierro, le Roque Chico de Salmor, était considérée comme disparue depuis plus d'un siècle, fut redécouverte en 1974 .
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard peut atteindre 60 centimètres, les mâles étant un peu plus grands que les femelles. Il est trapu avec une tête large. Sa coloration est le gris foncé à brun avec des rangées de taches orange sur les côtés.
 C'est un omnivore qui consomme des plantes ainsi que divers insectes.
-L'accouplement débute en mai puis les femelles pondent de 9 à 12 œufs de juin à fin août, ceux-ci incubant durant environ deux mois[4].
+L'accouplement débute en mai puis les femelles pondent de 9 à 12 œufs de juin à fin août, ceux-ci incubant durant environ deux mois.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2012)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2012) :
 Gallotia simonyi machadoi López-Jurado, 1989
 Gallotia simonyi simonyi (Steindachner, 1889)</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste austro-hongrois Oszkar Simonyi de Vienne (1852-1915) qui a collecté le premier spécimen en 1889[6] et la sous-espèce en l'honneur d'Antonio Machado Carrillo.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste austro-hongrois Oszkar Simonyi de Vienne (1852-1915) qui a collecté le premier spécimen en 1889 et la sous-espèce en l'honneur d'Antonio Machado Carrillo.
 </t>
         </is>
       </c>
